--- a/output/Tables/Linear/Modal shift/modalshift_1km_value.xlsx
+++ b/output/Tables/Linear/Modal shift/modalshift_1km_value.xlsx
@@ -386,13 +386,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5.611991868663876</v>
+        <v>0.6975020217070649</v>
       </c>
       <c r="B2">
-        <v>10.92219779636859</v>
+        <v>1.407548253252234</v>
       </c>
       <c r="C2">
-        <v>22.46069888885832</v>
+        <v>2.912408200519805</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -403,13 +403,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>6.08132360650338</v>
+        <v>0.7727009539412952</v>
       </c>
       <c r="B3">
-        <v>10.41293613483002</v>
+        <v>1.348686587978823</v>
       </c>
       <c r="C3">
-        <v>18.13922466692877</v>
+        <v>2.365142549575327</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -420,13 +420,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>6.676933937898776</v>
+        <v>0.8548986868933769</v>
       </c>
       <c r="B4">
-        <v>10.64137626238995</v>
+        <v>1.367631516170502</v>
       </c>
       <c r="C4">
-        <v>17.22134822600752</v>
+        <v>2.229615199380819</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -437,13 +437,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>6.702852968550099</v>
+        <v>0.8617514133063848</v>
       </c>
       <c r="B5">
-        <v>10.2127821077429</v>
+        <v>1.319376086455602</v>
       </c>
       <c r="C5">
-        <v>15.87839533717395</v>
+        <v>2.063360667915695</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -454,13 +454,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>6.374187804547555</v>
+        <v>0.819949820593278</v>
       </c>
       <c r="B6">
-        <v>9.850020881972576</v>
+        <v>1.272130669842625</v>
       </c>
       <c r="C6">
-        <v>15.19890887235045</v>
+        <v>1.966782205617589</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6.732851479694582</v>
+        <v>0.884760385768093</v>
       </c>
       <c r="B7">
-        <v>10.59797358829024</v>
+        <v>1.39916589086851</v>
       </c>
       <c r="C7">
-        <v>16.99782881269975</v>
+        <v>2.24704532064517</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -488,13 +488,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>6.991283570021591</v>
+        <v>0.9222134527855417</v>
       </c>
       <c r="B8">
-        <v>10.25638400271336</v>
+        <v>1.35520157476803</v>
       </c>
       <c r="C8">
-        <v>15.33594003417591</v>
+        <v>2.026669095472342</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>7.686235536295359</v>
+        <v>1.017954000173036</v>
       </c>
       <c r="B9">
-        <v>10.55742646995867</v>
+        <v>1.398209095392858</v>
       </c>
       <c r="C9">
-        <v>14.96036006799007</v>
+        <v>1.981660755777107</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -522,13 +522,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>7.076609140511386</v>
+        <v>0.9376297262857751</v>
       </c>
       <c r="B10">
-        <v>9.852946109917422</v>
+        <v>1.305250983270803</v>
       </c>
       <c r="C10">
-        <v>14.03702572187647</v>
+        <v>1.859829593742738</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -539,13 +539,13 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>7.355435211311596</v>
+        <v>0.9762097815282423</v>
       </c>
       <c r="B11">
-        <v>10.40824280807442</v>
+        <v>1.377072656203498</v>
       </c>
       <c r="C11">
-        <v>14.46133934000472</v>
+        <v>1.913342190449184</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -556,13 +556,13 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>7.184235069816665</v>
+        <v>0.9660958463389754</v>
       </c>
       <c r="B12">
-        <v>10.58876446371849</v>
+        <v>1.429300575094105</v>
       </c>
       <c r="C12">
-        <v>16.61194870808518</v>
+        <v>2.24395409456842</v>
       </c>
       <c r="D12">
         <v>1.5</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>7.420521130790431</v>
+        <v>1.000309266134904</v>
       </c>
       <c r="B13">
-        <v>10.44007812991462</v>
+        <v>1.407643913340642</v>
       </c>
       <c r="C13">
-        <v>14.96088869643607</v>
+        <v>2.017400053665824</v>
       </c>
       <c r="D13">
         <v>1.5</v>
@@ -590,13 +590,13 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>7.399959221229421</v>
+        <v>0.9976693041374166</v>
       </c>
       <c r="B14">
-        <v>10.6323739458594</v>
+        <v>1.432322236607871</v>
       </c>
       <c r="C14">
-        <v>15.39197493757566</v>
+        <v>2.07204829744428</v>
       </c>
       <c r="D14">
         <v>1.5</v>
@@ -607,13 +607,13 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>7.775150427402174</v>
+        <v>1.048345518325065</v>
       </c>
       <c r="B15">
-        <v>10.8181574634856</v>
+        <v>1.456873155580146</v>
       </c>
       <c r="C15">
-        <v>15.46180777175145</v>
+        <v>2.080870691319542</v>
       </c>
       <c r="D15">
         <v>1.5</v>
@@ -624,13 +624,13 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>7.3171427215093</v>
+        <v>0.9884748728359731</v>
       </c>
       <c r="B16">
-        <v>10.40407526186831</v>
+        <v>1.401965904186482</v>
       </c>
       <c r="C16">
-        <v>15.01192778214805</v>
+        <v>2.019976030313572</v>
       </c>
       <c r="D16">
         <v>1.5</v>
@@ -641,13 +641,13 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>6.877536082190996</v>
+        <v>0.9380524483172173</v>
       </c>
       <c r="B17">
-        <v>10.17409330801068</v>
+        <v>1.389380328669847</v>
       </c>
       <c r="C17">
-        <v>15.45300005597562</v>
+        <v>2.110121858410505</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -658,13 +658,13 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>6.883619037006466</v>
+        <v>0.939940845543937</v>
       </c>
       <c r="B18">
-        <v>10.0431111402252</v>
+        <v>1.369768892756253</v>
       </c>
       <c r="C18">
-        <v>14.44873101199904</v>
+        <v>1.969641996914429</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>7.209112975725876</v>
+        <v>0.9866753281271186</v>
       </c>
       <c r="B19">
-        <v>10.00349492793747</v>
+        <v>1.366057152906516</v>
       </c>
       <c r="C19">
-        <v>14.13312649056616</v>
+        <v>1.928538090228148</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>7.224969204329899</v>
+        <v>0.991467313895707</v>
       </c>
       <c r="B20">
-        <v>10.0095406336053</v>
+        <v>1.367410274879147</v>
       </c>
       <c r="C20">
-        <v>14.19431217209589</v>
+        <v>1.937230277371697</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>7.416319594033785</v>
+        <v>1.01695767348607</v>
       </c>
       <c r="B21">
-        <v>10.3651876844265</v>
+        <v>1.417288133768193</v>
       </c>
       <c r="C21">
-        <v>14.54297309189067</v>
+        <v>1.984831276057708</v>
       </c>
       <c r="D21">
         <v>2</v>

--- a/output/Tables/Linear/Modal shift/modalshift_1km_value.xlsx
+++ b/output/Tables/Linear/Modal shift/modalshift_1km_value.xlsx
@@ -386,13 +386,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.6975020217070649</v>
+        <v>0.6539288878193926</v>
       </c>
       <c r="B2">
-        <v>1.407548253252234</v>
+        <v>1.342726882982076</v>
       </c>
       <c r="C2">
-        <v>2.912408200519805</v>
+        <v>2.773819290700952</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -403,13 +403,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.7727009539412952</v>
+        <v>0.7325781068473314</v>
       </c>
       <c r="B3">
-        <v>1.348686587978823</v>
+        <v>1.282369767563159</v>
       </c>
       <c r="C3">
-        <v>2.365142549575327</v>
+        <v>2.257411280646854</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -420,13 +420,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.8548986868933769</v>
+        <v>0.8152645787873727</v>
       </c>
       <c r="B4">
-        <v>1.367631516170502</v>
+        <v>1.306013355293517</v>
       </c>
       <c r="C4">
-        <v>2.229615199380819</v>
+        <v>2.130949033531861</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -437,13 +437,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.8617514133063848</v>
+        <v>0.8198386911736634</v>
       </c>
       <c r="B5">
-        <v>1.319376086455602</v>
+        <v>1.259734520847694</v>
       </c>
       <c r="C5">
-        <v>2.063360667915695</v>
+        <v>1.972848477280197</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -454,13 +454,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.819949820593278</v>
+        <v>0.7794615876613831</v>
       </c>
       <c r="B6">
-        <v>1.272130669842625</v>
+        <v>1.21150094873036</v>
       </c>
       <c r="C6">
-        <v>1.966782205617589</v>
+        <v>1.875270497277403</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.884760385768093</v>
+        <v>0.8465563711548787</v>
       </c>
       <c r="B7">
-        <v>1.39916589086851</v>
+        <v>1.332153126018794</v>
       </c>
       <c r="C7">
-        <v>2.24704532064517</v>
+        <v>2.136217254508231</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -488,13 +488,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.9222134527855417</v>
+        <v>0.8784875951359368</v>
       </c>
       <c r="B8">
-        <v>1.35520157476803</v>
+        <v>1.285942197255902</v>
       </c>
       <c r="C8">
-        <v>2.026669095472342</v>
+        <v>1.919658637700958</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.017954000173036</v>
+        <v>0.9701806049629286</v>
       </c>
       <c r="B9">
-        <v>1.398209095392858</v>
+        <v>1.332147099755362</v>
       </c>
       <c r="C9">
-        <v>1.981660755777107</v>
+        <v>1.884112045485609</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -522,13 +522,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.9376297262857751</v>
+        <v>0.8954212320033895</v>
       </c>
       <c r="B10">
-        <v>1.305250983270803</v>
+        <v>1.241064701116315</v>
       </c>
       <c r="C10">
-        <v>1.859829593742738</v>
+        <v>1.773522305797125</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -539,13 +539,13 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.9762097815282423</v>
+        <v>0.9321434216538683</v>
       </c>
       <c r="B11">
-        <v>1.377072656203498</v>
+        <v>1.308711835044826</v>
       </c>
       <c r="C11">
-        <v>1.913342190449184</v>
+        <v>1.81570624829061</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -556,13 +556,13 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.9660958463389754</v>
+        <v>0.9200744729850399</v>
       </c>
       <c r="B12">
-        <v>1.429300575094105</v>
+        <v>1.355236855090187</v>
       </c>
       <c r="C12">
-        <v>2.24395409456842</v>
+        <v>2.125911273607313</v>
       </c>
       <c r="D12">
         <v>1.5</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1.000309266134904</v>
+        <v>0.9524094068834666</v>
       </c>
       <c r="B13">
-        <v>1.407643913340642</v>
+        <v>1.3371055782196</v>
       </c>
       <c r="C13">
-        <v>2.017400053665824</v>
+        <v>1.913899053828229</v>
       </c>
       <c r="D13">
         <v>1.5</v>
@@ -590,13 +590,13 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.9976693041374166</v>
+        <v>0.9516161003757924</v>
       </c>
       <c r="B14">
-        <v>1.432322236607871</v>
+        <v>1.362730801726373</v>
       </c>
       <c r="C14">
-        <v>2.07204829744428</v>
+        <v>1.965514465391178</v>
       </c>
       <c r="D14">
         <v>1.5</v>
@@ -607,13 +607,13 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>1.048345518325065</v>
+        <v>0.9984979110460517</v>
       </c>
       <c r="B15">
-        <v>1.456873155580146</v>
+        <v>1.383689954652535</v>
       </c>
       <c r="C15">
-        <v>2.080870691319542</v>
+        <v>1.97043178961999</v>
       </c>
       <c r="D15">
         <v>1.5</v>
@@ -624,13 +624,13 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.9884748728359731</v>
+        <v>0.9438155262413593</v>
       </c>
       <c r="B16">
-        <v>1.401965904186482</v>
+        <v>1.331788732212457</v>
       </c>
       <c r="C16">
-        <v>2.019976030313572</v>
+        <v>1.917139041865199</v>
       </c>
       <c r="D16">
         <v>1.5</v>
@@ -641,13 +641,13 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.9380524483172173</v>
+        <v>0.9016970541765035</v>
       </c>
       <c r="B17">
-        <v>1.389380328669847</v>
+        <v>1.335836389315624</v>
       </c>
       <c r="C17">
-        <v>2.110121858410505</v>
+        <v>2.028898630715765</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -658,13 +658,13 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.939940845543937</v>
+        <v>0.9034367318279534</v>
       </c>
       <c r="B18">
-        <v>1.369768892756253</v>
+        <v>1.315093061987553</v>
       </c>
       <c r="C18">
-        <v>1.969641996914429</v>
+        <v>1.888944585219159</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.9866753281271186</v>
+        <v>0.9482075859429915</v>
       </c>
       <c r="B19">
-        <v>1.366057152906516</v>
+        <v>1.311526575547676</v>
       </c>
       <c r="C19">
-        <v>1.928538090228148</v>
+        <v>1.850448601878675</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.991467313895707</v>
+        <v>0.952067620872692</v>
       </c>
       <c r="B20">
-        <v>1.367410274879147</v>
+        <v>1.312537147837818</v>
       </c>
       <c r="C20">
-        <v>1.937230277371697</v>
+        <v>1.858787659680436</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>1.01695767348607</v>
+        <v>0.9775898383943444</v>
       </c>
       <c r="B21">
-        <v>1.417288133768193</v>
+        <v>1.360969735909176</v>
       </c>
       <c r="C21">
-        <v>1.984831276057708</v>
+        <v>1.904389784929601</v>
       </c>
       <c r="D21">
         <v>2</v>
